--- a/ProjectEcommerce/src/main/resources/Ecommerce.xlsx
+++ b/ProjectEcommerce/src/main/resources/Ecommerce.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16125" windowHeight="3705"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15735" windowHeight="3705"/>
   </bookViews>
   <sheets>
     <sheet name="UserCredentials" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
